--- a/data/microservice-recruit/pf-outside_structure.xlsx
+++ b/data/microservice-recruit/pf-outside_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="270">
   <si>
     <t>Class Name</t>
   </si>
@@ -552,60 +552,60 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SPLIT</t>
+  </si>
+  <si>
+    <t>USER_AVATAR</t>
+  </si>
+  <si>
+    <t>PHONE_CODE</t>
+  </si>
+  <si>
     <t>JOINER</t>
   </si>
   <si>
     <t>com.google.common.base.Joiner</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PHONE_CODE</t>
-  </si>
-  <si>
-    <t>SPLIT</t>
-  </si>
-  <si>
-    <t>USER_AVATAR</t>
-  </si>
-  <si>
     <t>RECEIVE_RESUME</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>BUCKET_NAME</t>
+  </si>
+  <si>
     <t>ACCESS_KEY</t>
   </si>
   <si>
+    <t>cfg</t>
+  </si>
+  <si>
+    <t>com.qiniu.storage.Configuration</t>
+  </si>
+  <si>
+    <t>QINIU_IMAGE_DOMAIN</t>
+  </si>
+  <si>
     <t>uploadManager</t>
   </si>
   <si>
     <t>com.qiniu.storage.UploadManager</t>
   </si>
   <si>
-    <t>cfg</t>
-  </si>
-  <si>
-    <t>com.qiniu.storage.Configuration</t>
-  </si>
-  <si>
-    <t>log</t>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>com.qiniu.util.Auth</t>
   </si>
   <si>
     <t>SECRET_KEY</t>
   </si>
   <si>
-    <t>auth</t>
-  </si>
-  <si>
-    <t>com.qiniu.util.Auth</t>
-  </si>
-  <si>
-    <t>BUCKET_NAME</t>
-  </si>
-  <si>
-    <t>QINIU_IMAGE_DOMAIN</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
@@ -618,40 +618,46 @@
     <t>title</t>
   </si>
   <si>
+    <t>content</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>content</t>
+    <t>QINIU_ERROR</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>UNKNOW_ERROR</t>
   </si>
   <si>
     <t>NEED_LOGIN</t>
   </si>
   <si>
-    <t>msg</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
-    <t>QINIU_ERROR</t>
-  </si>
-  <si>
-    <t>UNKNOW_ERROR</t>
+    <t>SEND_NOTE_ERROR</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>SEND_NOTE_ERROR</t>
+    <t>avatar</t>
   </si>
   <si>
     <t>userId</t>
   </si>
   <si>
-    <t>avatar</t>
+    <t>ACCESS_KEY_ID</t>
+  </si>
+  <si>
+    <t>redis</t>
   </si>
   <si>
     <t>ACCESS_KEY_SECRET</t>
@@ -660,12 +666,6 @@
     <t>PRODUCT</t>
   </si>
   <si>
-    <t>ACCESS_KEY_ID</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
     <t>DOMAIN</t>
   </si>
   <si>
@@ -681,37 +681,37 @@
     <t>smsService</t>
   </si>
   <si>
+    <t>mailService</t>
+  </si>
+  <si>
     <t>userService</t>
   </si>
   <si>
-    <t>mailService</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
+    <t>SSL_FACTORY</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>from</t>
   </si>
   <si>
     <t>psw</t>
   </si>
   <si>
-    <t>SSL_FACTORY</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
     <t>val$username</t>
   </si>
   <si>
+    <t>this$0</t>
+  </si>
+  <si>
     <t>val$password</t>
-  </si>
-  <si>
-    <t>this$0</t>
   </si>
   <si>
     <t>userClient</t>
@@ -5460,7 +5460,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5559,21 +5559,21 @@
         <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
@@ -5581,10 +5581,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
@@ -5592,10 +5592,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
@@ -5603,10 +5603,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -5614,10 +5614,10 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15">
@@ -5625,21 +5625,21 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17">
@@ -5647,7 +5647,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>251</v>
@@ -5658,7 +5658,7 @@
         <v>45</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>251</v>
@@ -5669,7 +5669,7 @@
         <v>45</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>251</v>
@@ -5680,7 +5680,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>251</v>
@@ -5691,7 +5691,7 @@
         <v>45</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>251</v>
@@ -5702,10 +5702,10 @@
         <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
@@ -5713,10 +5713,10 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24">
@@ -5724,10 +5724,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -5735,10 +5735,10 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -5746,7 +5746,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>251</v>
@@ -5757,21 +5757,21 @@
         <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -5779,21 +5779,21 @@
         <v>55</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
@@ -5801,7 +5801,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>262</v>
@@ -5812,10 +5812,10 @@
         <v>58</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
@@ -5823,65 +5823,65 @@
         <v>58</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39">
@@ -5889,10 +5889,10 @@
         <v>81</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
@@ -5900,32 +5900,32 @@
         <v>81</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43">
@@ -5933,32 +5933,32 @@
         <v>87</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46">
@@ -5966,10 +5966,10 @@
         <v>168</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47">
@@ -5977,32 +5977,32 @@
         <v>168</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -6010,10 +6010,10 @@
         <v>77</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
@@ -6021,10 +6021,10 @@
         <v>77</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52">
@@ -6032,10 +6032,10 @@
         <v>77</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53">
@@ -6043,7 +6043,7 @@
         <v>77</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>251</v>
@@ -6054,7 +6054,7 @@
         <v>77</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>251</v>
@@ -6065,7 +6065,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>251</v>
@@ -6076,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>251</v>
@@ -6087,7 +6087,7 @@
         <v>77</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>251</v>
@@ -6098,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>251</v>
@@ -6109,7 +6109,7 @@
         <v>77</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>251</v>
@@ -6120,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>251</v>
@@ -6131,7 +6131,7 @@
         <v>77</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>251</v>
@@ -6142,7 +6142,7 @@
         <v>77</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>251</v>
@@ -6153,7 +6153,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>251</v>
@@ -6164,7 +6164,7 @@
         <v>77</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>251</v>
@@ -6175,10 +6175,10 @@
         <v>77</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66">
@@ -6186,7 +6186,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>251</v>
@@ -6197,10 +6197,10 @@
         <v>77</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68">
@@ -6208,7 +6208,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>251</v>
@@ -6216,68 +6216,68 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75">
@@ -6285,10 +6285,10 @@
         <v>128</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76">
@@ -6296,40 +6296,40 @@
         <v>128</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>262</v>
@@ -6337,46 +6337,46 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84">
@@ -6384,10 +6384,10 @@
         <v>151</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85">
@@ -6395,7 +6395,7 @@
         <v>151</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>251</v>
@@ -6403,21 +6403,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>251</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>251</v>
@@ -6439,9 +6439,42 @@
         <v>157</v>
       </c>
       <c r="B89" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="C89" t="s" s="0">
+      <c r="C92" t="s" s="0">
         <v>251</v>
       </c>
     </row>
@@ -6692,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -6700,7 +6733,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
@@ -6714,7 +6747,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
@@ -6728,7 +6761,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -6742,13 +6775,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>181</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -6776,7 +6809,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
@@ -6790,7 +6823,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -6798,13 +6831,13 @@
         <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -6812,13 +6845,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -6826,7 +6859,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>28</v>
@@ -6840,13 +6873,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -6854,13 +6887,13 @@
         <v>26</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
@@ -6910,7 +6943,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>28</v>
@@ -6986,7 +7019,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -7011,10 +7044,10 @@
         <v>203</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -7039,10 +7072,10 @@
         <v>205</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -7053,10 +7086,10 @@
         <v>206</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -7067,10 +7100,10 @@
         <v>207</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -7084,7 +7117,7 @@
         <v>28</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -7098,7 +7131,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -7126,7 +7159,7 @@
         <v>28</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -7148,13 +7181,13 @@
         <v>81</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
@@ -7162,13 +7195,13 @@
         <v>81</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -7190,13 +7223,13 @@
         <v>87</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
@@ -7218,13 +7251,13 @@
         <v>87</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>91</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -7232,13 +7265,13 @@
         <v>87</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>71</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42">
@@ -7246,13 +7279,13 @@
         <v>87</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
@@ -7280,7 +7313,7 @@
         <v>28</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -7294,7 +7327,7 @@
         <v>28</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46">
@@ -7302,13 +7335,13 @@
         <v>77</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -7316,7 +7349,7 @@
         <v>77</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>28</v>
@@ -7330,13 +7363,13 @@
         <v>77</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -7344,13 +7377,13 @@
         <v>77</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
@@ -7358,7 +7391,7 @@
         <v>122</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>28</v>
@@ -7414,13 +7447,13 @@
         <v>125</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -7428,13 +7461,13 @@
         <v>125</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>28</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
@@ -7442,7 +7475,7 @@
         <v>128</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>28</v>
@@ -7476,7 +7509,7 @@
         <v>91</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
@@ -7490,7 +7523,7 @@
         <v>91</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -7526,7 +7559,7 @@
         <v>151</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>91</v>
@@ -8546,7 +8579,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>237</v>
@@ -8563,7 +8596,7 @@
         <v>58</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>237</v>
